--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H2">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N2">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O2">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P2">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q2">
-        <v>419.5247343447326</v>
+        <v>16.284092552928</v>
       </c>
       <c r="R2">
-        <v>3775.722609102594</v>
+        <v>146.556832976352</v>
       </c>
       <c r="S2">
-        <v>0.138914750030589</v>
+        <v>0.004425710394887223</v>
       </c>
       <c r="T2">
-        <v>0.138914750030589</v>
+        <v>0.004425710394887224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H3">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q3">
-        <v>132.02379176043</v>
+        <v>2.909013171315</v>
       </c>
       <c r="R3">
-        <v>1188.21412584387</v>
+        <v>26.181118541835</v>
       </c>
       <c r="S3">
-        <v>0.04371625920730634</v>
+        <v>0.0007906151226607785</v>
       </c>
       <c r="T3">
-        <v>0.04371625920730635</v>
+        <v>0.0007906151226607786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H4">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P4">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q4">
-        <v>62.23076332976222</v>
+        <v>1.371193084014444</v>
       </c>
       <c r="R4">
-        <v>560.0768699678599</v>
+        <v>12.34073775613</v>
       </c>
       <c r="S4">
-        <v>0.02060610549141798</v>
+        <v>0.0003726645169570124</v>
       </c>
       <c r="T4">
-        <v>0.02060610549141798</v>
+        <v>0.0003726645169570124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>30.325482</v>
       </c>
       <c r="I5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N5">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O5">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P5">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q5">
-        <v>1153.939347811998</v>
+        <v>2032.803910640448</v>
       </c>
       <c r="R5">
-        <v>10385.45413030798</v>
+        <v>18295.23519576403</v>
       </c>
       <c r="S5">
-        <v>0.3820971278419146</v>
+        <v>0.5524779086613073</v>
       </c>
       <c r="T5">
-        <v>0.3820971278419146</v>
+        <v>0.5524779086613072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.325482</v>
       </c>
       <c r="I6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.773605</v>
       </c>
       <c r="O6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q6">
         <v>363.14294650029</v>
@@ -818,10 +818,10 @@
         <v>3268.28651850261</v>
       </c>
       <c r="S6">
-        <v>0.1202453812818741</v>
+        <v>0.09869542978416246</v>
       </c>
       <c r="T6">
-        <v>0.1202453812818741</v>
+        <v>0.09869542978416246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.325482</v>
       </c>
       <c r="I7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>50.80019</v>
       </c>
       <c r="O7">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P7">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q7">
         <v>171.17113860462</v>
@@ -880,10 +880,10 @@
         <v>1540.54024744158</v>
       </c>
       <c r="S7">
-        <v>0.05667888919315309</v>
+        <v>0.04652109934679379</v>
       </c>
       <c r="T7">
-        <v>0.05667888919315309</v>
+        <v>0.04652109934679378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.896868</v>
       </c>
       <c r="I8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N8">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O8">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P8">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q8">
-        <v>490.7491148446521</v>
+        <v>864.5139986699522</v>
       </c>
       <c r="R8">
-        <v>4416.742033601869</v>
+        <v>7780.625988029569</v>
       </c>
       <c r="S8">
-        <v>0.1624988589119968</v>
+        <v>0.2349586615283126</v>
       </c>
       <c r="T8">
-        <v>0.1624988589119968</v>
+        <v>0.2349586615283126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.896868</v>
       </c>
       <c r="I9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.773605</v>
       </c>
       <c r="O9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q9">
         <v>154.43799528546</v>
@@ -1004,10 +1004,10 @@
         <v>1389.94195756914</v>
       </c>
       <c r="S9">
-        <v>0.0511381421737007</v>
+        <v>0.04197334539083704</v>
       </c>
       <c r="T9">
-        <v>0.05113814217370071</v>
+        <v>0.04197334539083705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.896868</v>
       </c>
       <c r="I10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>50.80019</v>
       </c>
       <c r="O10">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P10">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q10">
         <v>72.79592720054667</v>
@@ -1066,10 +1066,10 @@
         <v>655.16334480492</v>
       </c>
       <c r="S10">
-        <v>0.02410448586804727</v>
+        <v>0.01978456525408189</v>
       </c>
       <c r="T10">
-        <v>0.02410448586804727</v>
+        <v>0.01978456525408189</v>
       </c>
     </row>
   </sheetData>
